--- a/biology/Botanique/Château_Haut_Bacalan/Château_Haut_Bacalan.xlsx
+++ b/biology/Botanique/Château_Haut_Bacalan/Château_Haut_Bacalan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Haut_Bacalan</t>
+          <t>Château_Haut_Bacalan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château Haut Bacalan est un domaine viticole situé sur la commune de Pessac.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Haut_Bacalan</t>
+          <t>Château_Haut_Bacalan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1726, Montesquieu, déjà propriétaire vigneron du château de la Brède, fait l’acquisition d’une trentaine de journaux de Landes à Pessac, en un lieu où la grave avait une densité convenable dans le sable afin d'y planter de la vigne.
 Ce domaine est identifié sous le nom de Haut-Médoc sur la carte de Cassini.
 En 1748, ce domaine appartient à M. de Bacalan, écuyer, après acquisition à M. de Montesquieu.
 À ce moment, cette propriété se compose d’une maison et possession, ainsi que deux pièces de vignes entourées de bois plantés de châtaigniers et de pins afin de les protéger de la gelée.
-XXe siècle
-Les vignes laissèrent la place en 1933 à une importante ferme consacrée à l’élevage du porc.
-XXIe siècle
-Ce château fait actuellement partie du patrimoine Gonet.
-Sans production pendant 70 ans, le vignoble a été replanté en 1998 sur ses terres. Classé pessac-léognan, le château a fait sa première nouvelle récolte en 2001.
 </t>
         </is>
       </c>
@@ -532,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Haut_Bacalan</t>
+          <t>Château_Haut_Bacalan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +556,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignes laissèrent la place en 1933 à une importante ferme consacrée à l’élevage du porc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Château_Haut_Bacalan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_Haut_Bacalan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce château fait actuellement partie du patrimoine Gonet.
+Sans production pendant 70 ans, le vignoble a été replanté en 1998 sur ses terres. Classé pessac-léognan, le château a fait sa première nouvelle récolte en 2001.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Château_Haut_Bacalan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_Haut_Bacalan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble de sept hectares de graves sur argiles est planté en majorité de Merlot.
 </t>
